--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/产成品.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/产成品.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>31.93898</v>
-      </c>
-      <c r="C2" t="n">
-        <v>88.26125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.74504</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24.46379</v>
-      </c>
-      <c r="G2" t="n">
-        <v>79.13894999999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21.12135</v>
-      </c>
-      <c r="I2" t="n">
-        <v>35.32629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12.87406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>55.83891</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1417.64352</v>
-      </c>
-      <c r="M2" t="n">
-        <v>12.562</v>
-      </c>
-      <c r="N2" t="n">
-        <v>19.90662</v>
-      </c>
-      <c r="O2" t="n">
-        <v>54.64883</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18.70803</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.08454</v>
-      </c>
-      <c r="R2" t="n">
-        <v>68.25868</v>
-      </c>
-      <c r="S2" t="n">
-        <v>22.0447</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>32.26898</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.03306</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.68114</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.25207</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.54167</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>219.17708</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>116.60746</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>36.33664</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10.07122</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.8142</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>101.79241</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.0254</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>48.21092</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>72.52234</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>73.67053</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.31085</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>31.75458</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>55.53307</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>28.57033</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>22.48321</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.02134</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>35.01305</v>
-      </c>
-      <c r="C3" t="n">
-        <v>96.16173999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.9085</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>26.79371</v>
-      </c>
-      <c r="G3" t="n">
-        <v>95.41567000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20.49196</v>
-      </c>
-      <c r="I3" t="n">
-        <v>42.79621</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.1123</v>
-      </c>
-      <c r="K3" t="n">
-        <v>60.93911</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1538.02294</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.74546</v>
-      </c>
-      <c r="N3" t="n">
-        <v>23.7632</v>
-      </c>
-      <c r="O3" t="n">
-        <v>59.99776</v>
-      </c>
-      <c r="P3" t="n">
-        <v>18.01689</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.19185</v>
-      </c>
-      <c r="R3" t="n">
-        <v>71.83094</v>
-      </c>
-      <c r="S3" t="n">
-        <v>21.98001</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>34.73784</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.8984799999999999</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.2651</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.74479</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.5311</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>204.75151</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>132.23806</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41.33595</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11.56909</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.0464</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>123.73159</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.00776</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>42.21056</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>78.63948000000001</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>87.20223</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.20243</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>36.35464</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>62.30352</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>27.71016</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>30.35313</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.03076</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>43.78657</v>
-      </c>
-      <c r="C4" t="n">
-        <v>107.89426</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.378</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>33.32955</v>
-      </c>
-      <c r="G4" t="n">
-        <v>101.52007</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18.24989</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42.17338</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15.97465</v>
-      </c>
-      <c r="K4" t="n">
-        <v>69.84701</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1697.08284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13.19302</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25.24776</v>
-      </c>
-      <c r="O4" t="n">
-        <v>72.52853</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24.35954</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.10887</v>
-      </c>
-      <c r="R4" t="n">
-        <v>74.46008999999999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>23.01887</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>32.73435</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.35027</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.03235</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.21624</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.00719</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>274.28368</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>125.54722</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>46.31849</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15.34534</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.51709</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>119.38724</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>44.98111</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>78.75156</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>87.85693999999999</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.25398</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>40.28411</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>75.95528</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29.38693</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>25.58313</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.05508</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
